--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7dbdd89a79954680"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4ef1b44bae2f43a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R4ef1b44bae2f43a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R960934cfe542462e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R960934cfe542462e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c97aa8fdd3843a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2c97aa8fdd3843a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf34569ce091d4d26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf34569ce091d4d26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2ed86a2867d8478a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R2ed86a2867d8478a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re82c6a851f684059"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re82c6a851f684059"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rbdbbba55916c4230"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rbdbbba55916c4230"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6bdcb8178aa04714"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R6bdcb8178aa04714"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1a3fce4f5e094b1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1a3fce4f5e094b1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R83dc8d321e4a47e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R83dc8d321e4a47e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rcb2bc4ea563247eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rcb2bc4ea563247eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc8ecf70cdcb84ffd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc8ecf70cdcb84ffd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R422931cc9b974aaf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R422931cc9b974aaf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5372dae029844949"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5372dae029844949"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R174cc1dbfc3f4912"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R174cc1dbfc3f4912"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R025cc497f5664178"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R025cc497f5664178"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0253718e64784ef2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0253718e64784ef2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R692afbd62efd47ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R692afbd62efd47ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R40da08307c9a468c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/61_JsonToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R40da08307c9a468c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R3a87e04e3a5e4e9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
